--- a/2017_gains (21)_edited.xlsx
+++ b/2017_gains (21)_edited.xlsx
@@ -9,16 +9,34 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$70</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
   <si>
     <t>ריכוז סעיפים בש"ח / שווי עסקאות ברטר</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>שדה</t>
   </si>
   <si>
@@ -50,12 +68,111 @@
   </si>
   <si>
     <t>א21</t>
+  </si>
+  <si>
+    <t>מטבע</t>
+  </si>
+  <si>
+    <t>כמות</t>
+  </si>
+  <si>
+    <t>תאריך רכישה</t>
+  </si>
+  <si>
+    <t>תאריך מכירה</t>
+  </si>
+  <si>
+    <t>מחיר קניה</t>
+  </si>
+  <si>
+    <t>מחיר מכירה</t>
+  </si>
+  <si>
+    <t>מדד רכישה (לפי בסיס 51)</t>
+  </si>
+  <si>
+    <t>מדד מכירה (לפי בסיס 51)</t>
+  </si>
+  <si>
+    <t>תמורה בש"ח-שווי עסקת ברטר</t>
+  </si>
+  <si>
+    <t>עלות מקורית נומינאלית</t>
+  </si>
+  <si>
+    <t>סכום אינפלציוני</t>
+  </si>
+  <si>
+    <t>עלות מקורית מתואמת</t>
+  </si>
+  <si>
+    <t>רווח/הפסד נומינאלי</t>
+  </si>
+  <si>
+    <t>רווח-הפסד ריאלי</t>
+  </si>
+  <si>
+    <t>רווח-הפסד לצורכי מס</t>
+  </si>
+  <si>
+    <t>עסקה</t>
+  </si>
+  <si>
+    <t>AVT</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>EDO</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>QSH</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>XMR</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>ZEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -108,11 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,82 +525,3001 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:P70"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>182703.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>166096.2269805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>16607.20301950001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>16607.20301950001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42959</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F14">
+        <v>12.9454</v>
+      </c>
+      <c r="G14">
+        <v>11.6089</v>
+      </c>
+      <c r="H14">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="I14">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J14">
+        <v>2321.78</v>
+      </c>
+      <c r="K14">
+        <v>2589.08</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2589.08</v>
+      </c>
+      <c r="N14">
+        <v>-267.2999999999997</v>
+      </c>
+      <c r="O14">
+        <v>-267.2999999999997</v>
+      </c>
+      <c r="P14">
+        <v>-267.2999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>0.0316707</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42867</v>
+      </c>
+      <c r="E15" s="2">
+        <v>42867</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>5305.534768729457</v>
+      </c>
+      <c r="H15">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I15">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J15">
+        <v>168.03</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>168.03</v>
+      </c>
+      <c r="O15">
+        <v>168.03</v>
+      </c>
+      <c r="P15">
+        <v>168.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0.09478599</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43019</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43019</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3626.274304884087</v>
+      </c>
+      <c r="H16">
+        <v>33804703.1534337</v>
+      </c>
+      <c r="I16">
+        <v>33804703.1534337</v>
+      </c>
+      <c r="J16">
+        <v>343.72</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>343.72</v>
+      </c>
+      <c r="O16">
+        <v>343.72</v>
+      </c>
+      <c r="P16">
+        <v>343.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>0.01978829</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43054</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43054</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4677.513822568802</v>
+      </c>
+      <c r="H17">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I17">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J17">
+        <v>92.56</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>92.56</v>
+      </c>
+      <c r="O17">
+        <v>92.56</v>
+      </c>
+      <c r="P17">
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>0.10431667</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43056</v>
+      </c>
+      <c r="F18">
+        <v>3714.554922046495</v>
+      </c>
+      <c r="G18">
+        <v>4216.967431955027</v>
+      </c>
+      <c r="H18">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I18">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J18">
+        <v>439.9</v>
+      </c>
+      <c r="K18">
+        <v>387.49</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>387.49</v>
+      </c>
+      <c r="N18">
+        <v>52.40999999999997</v>
+      </c>
+      <c r="O18">
+        <v>52.40999999999997</v>
+      </c>
+      <c r="P18">
+        <v>52.40999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>7.56E-06</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43067</v>
+      </c>
+      <c r="F19">
+        <v>3968.253968253968</v>
+      </c>
+      <c r="G19">
+        <v>5291.005291005292</v>
+      </c>
+      <c r="H19">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I19">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J19">
+        <v>0.04</v>
+      </c>
+      <c r="K19">
+        <v>0.03</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.03</v>
+      </c>
+      <c r="N19">
+        <v>0.01</v>
+      </c>
+      <c r="O19">
+        <v>0.01</v>
+      </c>
+      <c r="P19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>1.27468423</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43064</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43067</v>
+      </c>
+      <c r="F20">
+        <v>5677.821871225315</v>
+      </c>
+      <c r="G20">
+        <v>5256.070360264832</v>
+      </c>
+      <c r="H20">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I20">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J20">
+        <v>6699.83</v>
+      </c>
+      <c r="K20">
+        <v>7237.43</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7237.43</v>
+      </c>
+      <c r="N20">
+        <v>-537.6000000000004</v>
+      </c>
+      <c r="O20">
+        <v>-537.6000000000004</v>
+      </c>
+      <c r="P20">
+        <v>-537.6000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>0.05051065</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43067</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>5256.119254058303</v>
+      </c>
+      <c r="H21">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I21">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J21">
+        <v>265.49</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>265.49</v>
+      </c>
+      <c r="O21">
+        <v>265.49</v>
+      </c>
+      <c r="P21">
+        <v>265.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>182703.43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0.06778575000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43089</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43089</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>12958.03321494562</v>
+      </c>
+      <c r="H22">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I22">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J22">
+        <v>878.37</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>878.37</v>
+      </c>
+      <c r="O22">
+        <v>878.37</v>
+      </c>
+      <c r="P22">
+        <v>878.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>166096.2269805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0.00393396</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42747</v>
+      </c>
+      <c r="E23" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F23">
+        <v>34850.37977000274</v>
+      </c>
+      <c r="G23">
+        <v>51853.60298528709</v>
+      </c>
+      <c r="H23">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="I23">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J23">
+        <v>203.99</v>
+      </c>
+      <c r="K23">
+        <v>137.1</v>
+      </c>
+      <c r="L23">
+        <v>0.5497710000000211</v>
+      </c>
+      <c r="M23">
+        <v>137.649771</v>
+      </c>
+      <c r="N23">
+        <v>66.89000000000001</v>
+      </c>
+      <c r="O23">
+        <v>66.34022899999999</v>
+      </c>
+      <c r="P23">
+        <v>66.34022899999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0.02974378</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42898</v>
+      </c>
+      <c r="E24" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F24">
+        <v>45256.18465440505</v>
+      </c>
+      <c r="G24">
+        <v>51854.87520416033</v>
+      </c>
+      <c r="H24">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I24">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J24">
+        <v>1542.36</v>
+      </c>
+      <c r="K24">
+        <v>1346.09</v>
+      </c>
+      <c r="L24">
+        <v>2.692180000000008</v>
+      </c>
+      <c r="M24">
+        <v>1348.78218</v>
+      </c>
+      <c r="N24">
+        <v>196.27</v>
+      </c>
+      <c r="O24">
+        <v>193.57782</v>
+      </c>
+      <c r="P24">
+        <v>193.57782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>0.02580108</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E25" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F25">
+        <v>28032.54747475687</v>
+      </c>
+      <c r="G25">
+        <v>51854.80607788511</v>
+      </c>
+      <c r="H25">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I25">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J25">
+        <v>1337.91</v>
+      </c>
+      <c r="K25">
+        <v>723.27</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>723.27</v>
+      </c>
+      <c r="N25">
+        <v>614.6400000000001</v>
+      </c>
+      <c r="O25">
+        <v>614.6400000000001</v>
+      </c>
+      <c r="P25">
+        <v>614.6400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>0.24275606</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43056</v>
+      </c>
+      <c r="E26" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F26">
+        <v>27302.75816801442</v>
+      </c>
+      <c r="G26">
+        <v>51854.81260488409</v>
+      </c>
+      <c r="H26">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I26">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J26">
+        <v>12588.07</v>
+      </c>
+      <c r="K26">
+        <v>6627.91</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>6627.91</v>
+      </c>
+      <c r="N26">
+        <v>5960.16</v>
+      </c>
+      <c r="O26">
+        <v>5960.16</v>
+      </c>
+      <c r="P26">
+        <v>5960.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>0.00408624</v>
+      </c>
+      <c r="D27" s="2">
+        <v>42745</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43055</v>
+      </c>
+      <c r="F27">
+        <v>15145.95324797369</v>
+      </c>
+      <c r="G27">
+        <v>27746.77943537335</v>
+      </c>
+      <c r="H27">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="I27">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J27">
+        <v>113.38</v>
+      </c>
+      <c r="K27">
+        <v>61.89</v>
+      </c>
+      <c r="L27">
+        <v>0.3100688999999974</v>
+      </c>
+      <c r="M27">
+        <v>62.2000689</v>
+      </c>
+      <c r="N27">
+        <v>51.48999999999999</v>
+      </c>
+      <c r="O27">
+        <v>51.1799311</v>
+      </c>
+      <c r="P27">
+        <v>51.1799311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>0.22928587</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43023</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43055</v>
+      </c>
+      <c r="F28">
+        <v>20452.2415620291</v>
+      </c>
+      <c r="G28">
+        <v>27784.00605322953</v>
+      </c>
+      <c r="H28">
+        <v>33804703.1534337</v>
+      </c>
+      <c r="I28">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J28">
+        <v>6370.48</v>
+      </c>
+      <c r="K28">
+        <v>4689.41</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>4689.41</v>
+      </c>
+      <c r="N28">
+        <v>1681.07</v>
+      </c>
+      <c r="O28">
+        <v>1681.07</v>
+      </c>
+      <c r="P28">
+        <v>1681.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>0.17678038</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42866</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43056</v>
+      </c>
+      <c r="F29">
+        <v>27025.11443860456</v>
+      </c>
+      <c r="G29">
+        <v>28244.42395700247</v>
+      </c>
+      <c r="H29">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I29">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J29">
+        <v>4993.06</v>
+      </c>
+      <c r="K29">
+        <v>4777.51</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>4777.51</v>
+      </c>
+      <c r="N29">
+        <v>215.5500000000002</v>
+      </c>
+      <c r="O29">
+        <v>215.5500000000002</v>
+      </c>
+      <c r="P29">
+        <v>215.5500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>0.01518587</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43023</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43056</v>
+      </c>
+      <c r="F30">
+        <v>20452.56544406083</v>
+      </c>
+      <c r="G30">
+        <v>28244.6774534485</v>
+      </c>
+      <c r="H30">
+        <v>33804703.1534337</v>
+      </c>
+      <c r="I30">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J30">
+        <v>428.92</v>
+      </c>
+      <c r="K30">
+        <v>310.59</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>310.59</v>
+      </c>
+      <c r="N30">
+        <v>118.33</v>
+      </c>
+      <c r="O30">
+        <v>118.33</v>
+      </c>
+      <c r="P30">
+        <v>118.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>0.008195630000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>42866</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43064</v>
+      </c>
+      <c r="F31">
+        <v>27025.37815884807</v>
+      </c>
+      <c r="G31">
+        <v>29840.29293660158</v>
+      </c>
+      <c r="H31">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I31">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J31">
+        <v>244.56</v>
+      </c>
+      <c r="K31">
+        <v>221.49</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>221.49</v>
+      </c>
+      <c r="N31">
+        <v>23.06999999999999</v>
+      </c>
+      <c r="O31">
+        <v>23.06999999999999</v>
+      </c>
+      <c r="P31">
+        <v>23.06999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>0.0144695</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43019</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43064</v>
+      </c>
+      <c r="F32">
+        <v>23705.03472822143</v>
+      </c>
+      <c r="G32">
+        <v>29840.00829330661</v>
+      </c>
+      <c r="H32">
+        <v>33804703.1534337</v>
+      </c>
+      <c r="I32">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J32">
+        <v>431.77</v>
+      </c>
+      <c r="K32">
+        <v>343</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>343</v>
+      </c>
+      <c r="N32">
+        <v>88.76999999999998</v>
+      </c>
+      <c r="O32">
+        <v>88.76999999999998</v>
+      </c>
+      <c r="P32">
+        <v>88.76999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0.05392455</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43053</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43064</v>
+      </c>
+      <c r="F33">
+        <v>25793.81747274664</v>
+      </c>
+      <c r="G33">
+        <v>29839.84103715283</v>
+      </c>
+      <c r="H33">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I33">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J33">
+        <v>1609.1</v>
+      </c>
+      <c r="K33">
+        <v>1390.92</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1390.92</v>
+      </c>
+      <c r="N33">
+        <v>218.1799999999998</v>
+      </c>
+      <c r="O33">
+        <v>218.1799999999998</v>
+      </c>
+      <c r="P33">
+        <v>218.1799999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>0.16616561</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43064</v>
+      </c>
+      <c r="F34">
+        <v>28032.57545288703</v>
+      </c>
+      <c r="G34">
+        <v>29839.9891529902</v>
+      </c>
+      <c r="H34">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I34">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J34">
+        <v>4958.38</v>
+      </c>
+      <c r="K34">
+        <v>4658.05</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>4658.05</v>
+      </c>
+      <c r="N34">
+        <v>300.3299999999999</v>
+      </c>
+      <c r="O34">
+        <v>300.3299999999999</v>
+      </c>
+      <c r="P34">
+        <v>300.3299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E35" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F35">
+        <v>0.3488</v>
+      </c>
+      <c r="G35">
+        <v>0.36758</v>
+      </c>
+      <c r="H35">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I35">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J35">
+        <v>367.58</v>
+      </c>
+      <c r="K35">
+        <v>348.8</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>348.8</v>
+      </c>
+      <c r="N35">
+        <v>18.78000000000003</v>
+      </c>
+      <c r="O35">
+        <v>18.78000000000003</v>
+      </c>
+      <c r="P35">
+        <v>18.78000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>199.6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>42959</v>
+      </c>
+      <c r="E36" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F36">
+        <v>8.557615230460923</v>
+      </c>
+      <c r="G36">
+        <v>8.429659318637276</v>
+      </c>
+      <c r="H36">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="I36">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J36">
+        <v>1682.56</v>
+      </c>
+      <c r="K36">
+        <v>1708.1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1708.1</v>
+      </c>
+      <c r="N36">
+        <v>-25.53999999999996</v>
+      </c>
+      <c r="O36">
+        <v>-25.53999999999996</v>
+      </c>
+      <c r="P36">
+        <v>-25.53999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>42959</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43086</v>
+      </c>
+      <c r="F37">
+        <v>8.574999999999999</v>
+      </c>
+      <c r="G37">
+        <v>11.0625</v>
+      </c>
+      <c r="H37">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="I37">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J37">
+        <v>8.85</v>
+      </c>
+      <c r="K37">
+        <v>6.86</v>
+      </c>
+      <c r="L37">
+        <v>0.01372000000000018</v>
+      </c>
+      <c r="M37">
+        <v>6.87372</v>
+      </c>
+      <c r="N37">
+        <v>1.989999999999999</v>
+      </c>
+      <c r="O37">
+        <v>1.976279999999999</v>
+      </c>
+      <c r="P37">
+        <v>1.976279999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>1342.608694</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43086</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43086</v>
+      </c>
+      <c r="F38">
+        <v>10.85826426206652</v>
+      </c>
+      <c r="G38">
+        <v>11.05680312241446</v>
+      </c>
+      <c r="H38">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I38">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J38">
+        <v>14844.96</v>
+      </c>
+      <c r="K38">
+        <v>14578.4</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>14578.4</v>
+      </c>
+      <c r="N38">
+        <v>266.5599999999995</v>
+      </c>
+      <c r="O38">
+        <v>266.5599999999995</v>
+      </c>
+      <c r="P38">
+        <v>266.5599999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>199.99999996</v>
+      </c>
+      <c r="D39" s="2">
+        <v>42959</v>
+      </c>
+      <c r="E39" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F39">
+        <v>15.10995000302199</v>
+      </c>
+      <c r="G39">
+        <v>14.42275000288455</v>
+      </c>
+      <c r="H39">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="I39">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="J39">
+        <v>2884.55</v>
+      </c>
+      <c r="K39">
+        <v>3021.99</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3021.99</v>
+      </c>
+      <c r="N39">
+        <v>-137.4399999999996</v>
+      </c>
+      <c r="O39">
+        <v>-137.4399999999996</v>
+      </c>
+      <c r="P39">
+        <v>-137.4399999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>16607.20301950001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>16607.20301950001</v>
+      <c r="D40" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E40" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F40">
+        <v>107.408</v>
+      </c>
+      <c r="G40">
+        <v>103.662</v>
+      </c>
+      <c r="H40">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I40">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J40">
+        <v>518.3100000000001</v>
+      </c>
+      <c r="K40">
+        <v>537.04</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>537.04</v>
+      </c>
+      <c r="N40">
+        <v>-18.7299999999999</v>
+      </c>
+      <c r="O40">
+        <v>-18.7299999999999</v>
+      </c>
+      <c r="P40">
+        <v>-18.7299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>2.413E-05</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E41" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F41">
+        <v>1243.265644426026</v>
+      </c>
+      <c r="G41">
+        <v>1657.687525901368</v>
+      </c>
+      <c r="H41">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I41">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J41">
+        <v>0.04</v>
+      </c>
+      <c r="K41">
+        <v>0.03</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0.03</v>
+      </c>
+      <c r="N41">
+        <v>0.01</v>
+      </c>
+      <c r="O41">
+        <v>0.01</v>
+      </c>
+      <c r="P41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.99997587</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F42">
+        <v>1620.639106021628</v>
+      </c>
+      <c r="G42">
+        <v>1621.039115673861</v>
+      </c>
+      <c r="H42">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I42">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J42">
+        <v>1621</v>
+      </c>
+      <c r="K42">
+        <v>1620.6</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1620.6</v>
+      </c>
+      <c r="N42">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="O42">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="P42">
+        <v>0.4000000000000909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>0.68207587</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43056</v>
+      </c>
+      <c r="F43">
+        <v>1184.853526631869</v>
+      </c>
+      <c r="G43">
+        <v>1162.37802108437</v>
+      </c>
+      <c r="H43">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I43">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J43">
+        <v>792.83</v>
+      </c>
+      <c r="K43">
+        <v>808.16</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>808.16</v>
+      </c>
+      <c r="N43">
+        <v>-15.32999999999993</v>
+      </c>
+      <c r="O43">
+        <v>-15.32999999999993</v>
+      </c>
+      <c r="P43">
+        <v>-15.32999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>2.413E-05</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43097</v>
+      </c>
+      <c r="F44">
+        <v>1657.687525901368</v>
+      </c>
+      <c r="G44">
+        <v>2486.531288852051</v>
+      </c>
+      <c r="H44">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I44">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J44">
+        <v>0.06</v>
+      </c>
+      <c r="K44">
+        <v>0.04</v>
+      </c>
+      <c r="L44">
+        <v>3.999999999999837E-05</v>
+      </c>
+      <c r="M44">
+        <v>0.04004</v>
+      </c>
+      <c r="N44">
+        <v>0.02</v>
+      </c>
+      <c r="O44">
+        <v>0.01996</v>
+      </c>
+      <c r="P44">
+        <v>0.01996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>1.99997587</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43088</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43097</v>
+      </c>
+      <c r="F45">
+        <v>2882.709779893494</v>
+      </c>
+      <c r="G45">
+        <v>2450.589566363118</v>
+      </c>
+      <c r="H45">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I45">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J45">
+        <v>4901.12</v>
+      </c>
+      <c r="K45">
+        <v>5765.349999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>5765.349999999999</v>
+      </c>
+      <c r="N45">
+        <v>-864.2299999999996</v>
+      </c>
+      <c r="O45">
+        <v>-864.2299999999996</v>
+      </c>
+      <c r="P45">
+        <v>-864.2299999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>-0.03051529</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E46" s="2">
+        <v>42867</v>
+      </c>
+      <c r="F46">
+        <v>4.260159415165315</v>
+      </c>
+      <c r="G46">
+        <v>15.07441023827727</v>
+      </c>
+      <c r="H46">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I46">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J46">
+        <v>-0.46</v>
+      </c>
+      <c r="K46">
+        <v>-0.13</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-0.13</v>
+      </c>
+      <c r="N46">
+        <v>-0.33</v>
+      </c>
+      <c r="O46">
+        <v>-0.33</v>
+      </c>
+      <c r="P46">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>445.66874599</v>
+      </c>
+      <c r="D47" s="2">
+        <v>42747</v>
+      </c>
+      <c r="E47" s="2">
+        <v>42898</v>
+      </c>
+      <c r="F47">
+        <v>5.075742960110462</v>
+      </c>
+      <c r="G47">
+        <v>16.26791213257453</v>
+      </c>
+      <c r="H47">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="I47">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="J47">
+        <v>7250.1</v>
+      </c>
+      <c r="K47">
+        <v>2262.1</v>
+      </c>
+      <c r="L47">
+        <v>4.524199999999837</v>
+      </c>
+      <c r="M47">
+        <v>2266.6242</v>
+      </c>
+      <c r="N47">
+        <v>4988</v>
+      </c>
+      <c r="O47">
+        <v>4983.4758</v>
+      </c>
+      <c r="P47">
+        <v>4983.4758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>410.7654271699999</v>
+      </c>
+      <c r="D48" s="2">
+        <v>42867</v>
+      </c>
+      <c r="E48" s="2">
+        <v>42898</v>
+      </c>
+      <c r="F48">
+        <v>11.23446545098388</v>
+      </c>
+      <c r="G48">
+        <v>16.26821430917166</v>
+      </c>
+      <c r="H48">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="I48">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="J48">
+        <v>6682.42</v>
+      </c>
+      <c r="K48">
+        <v>4614.73</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>4614.73</v>
+      </c>
+      <c r="N48">
+        <v>2067.69</v>
+      </c>
+      <c r="O48">
+        <v>2067.69</v>
+      </c>
+      <c r="P48">
+        <v>2067.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>2866.72992766</v>
+      </c>
+      <c r="D49" s="2">
+        <v>42898</v>
+      </c>
+      <c r="E49" s="2">
+        <v>42898</v>
+      </c>
+      <c r="F49">
+        <v>15.60760557466318</v>
+      </c>
+      <c r="G49">
+        <v>15.09319367078226</v>
+      </c>
+      <c r="H49">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="I49">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="J49">
+        <v>43268.11000000001</v>
+      </c>
+      <c r="K49">
+        <v>44742.78999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>44742.78999999999</v>
+      </c>
+      <c r="N49">
+        <v>-1474.679999999986</v>
+      </c>
+      <c r="O49">
+        <v>-1474.679999999986</v>
+      </c>
+      <c r="P49">
+        <v>-1474.679999999986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>100.03051529</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E50" s="2">
+        <v>42898</v>
+      </c>
+      <c r="F50">
+        <v>4.325580036707617</v>
+      </c>
+      <c r="G50">
+        <v>16.26803576171001</v>
+      </c>
+      <c r="H50">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I50">
+        <v>33603084.6455603</v>
+      </c>
+      <c r="J50">
+        <v>1627.3</v>
+      </c>
+      <c r="K50">
+        <v>432.69</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>432.69</v>
+      </c>
+      <c r="N50">
+        <v>1194.61</v>
+      </c>
+      <c r="O50">
+        <v>1194.61</v>
+      </c>
+      <c r="P50">
+        <v>1194.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>200</v>
+      </c>
+      <c r="D51" s="2">
+        <v>42959</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43020</v>
+      </c>
+      <c r="F51">
+        <v>14.397</v>
+      </c>
+      <c r="G51">
+        <v>13.0433</v>
+      </c>
+      <c r="H51">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="I51">
+        <v>33804703.1534337</v>
+      </c>
+      <c r="J51">
+        <v>2608.66</v>
+      </c>
+      <c r="K51">
+        <v>2879.4</v>
+      </c>
+      <c r="L51">
+        <v>11.48880599999984</v>
+      </c>
+      <c r="M51">
+        <v>2890.888806</v>
+      </c>
+      <c r="N51">
+        <v>-270.7400000000002</v>
+      </c>
+      <c r="O51">
+        <v>-282.2288060000001</v>
+      </c>
+      <c r="P51">
+        <v>-270.7400000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43089</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43089</v>
+      </c>
+      <c r="F52">
+        <v>16.7942</v>
+      </c>
+      <c r="G52">
+        <v>16.8115</v>
+      </c>
+      <c r="H52">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I52">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J52">
+        <v>3362.3</v>
+      </c>
+      <c r="K52">
+        <v>3358.84</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3358.84</v>
+      </c>
+      <c r="N52">
+        <v>3.460000000000036</v>
+      </c>
+      <c r="O52">
+        <v>3.460000000000036</v>
+      </c>
+      <c r="P52">
+        <v>3.460000000000036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>-0.00945471</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E53" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F53">
+        <v>317.3021700295408</v>
+      </c>
+      <c r="G53">
+        <v>310.95612662895</v>
+      </c>
+      <c r="H53">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I53">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J53">
+        <v>-2.94</v>
+      </c>
+      <c r="K53">
+        <v>-3</v>
+      </c>
+      <c r="L53">
+        <v>0.01496999999999993</v>
+      </c>
+      <c r="M53">
+        <v>-2.98503</v>
+      </c>
+      <c r="N53">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="O53">
+        <v>0.04503000000000013</v>
+      </c>
+      <c r="P53">
+        <v>0.04503000000000013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>6.989898700000001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>42747</v>
+      </c>
+      <c r="E54" s="2">
+        <v>42867</v>
+      </c>
+      <c r="F54">
+        <v>342.1480199705898</v>
+      </c>
+      <c r="G54">
+        <v>353.7404626479064</v>
+      </c>
+      <c r="H54">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="I54">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J54">
+        <v>2472.61</v>
+      </c>
+      <c r="K54">
+        <v>2391.58</v>
+      </c>
+      <c r="L54">
+        <v>21.57205160000012</v>
+      </c>
+      <c r="M54">
+        <v>2413.1520516</v>
+      </c>
+      <c r="N54">
+        <v>81.0300000000002</v>
+      </c>
+      <c r="O54">
+        <v>59.45794840000008</v>
+      </c>
+      <c r="P54">
+        <v>59.45794840000008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>5.58194444</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E55" s="2">
+        <v>42867</v>
+      </c>
+      <c r="F55">
+        <v>318.1866138388149</v>
+      </c>
+      <c r="G55">
+        <v>353.7405327524185</v>
+      </c>
+      <c r="H55">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I55">
+        <v>33838306.2380792</v>
+      </c>
+      <c r="J55">
+        <v>1974.56</v>
+      </c>
+      <c r="K55">
+        <v>1776.1</v>
+      </c>
+      <c r="L55">
+        <v>7.086638999999877</v>
+      </c>
+      <c r="M55">
+        <v>1783.186639</v>
+      </c>
+      <c r="N55">
+        <v>198.4600000000003</v>
+      </c>
+      <c r="O55">
+        <v>191.3733610000004</v>
+      </c>
+      <c r="P55">
+        <v>191.3733610000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>-0.00054848</v>
+      </c>
+      <c r="D56" s="2">
+        <v>42747</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43090</v>
+      </c>
+      <c r="F56">
+        <v>346.411901983664</v>
+      </c>
+      <c r="G56">
+        <v>1075.700116686114</v>
+      </c>
+      <c r="H56">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="I56">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J56">
+        <v>-0.59</v>
+      </c>
+      <c r="K56">
+        <v>-0.19</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-0.19</v>
+      </c>
+      <c r="N56">
+        <v>-0.4</v>
+      </c>
+      <c r="O56">
+        <v>-0.4</v>
+      </c>
+      <c r="P56">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>-0.0114432</v>
+      </c>
+      <c r="D57" s="2">
+        <v>42747</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43097</v>
+      </c>
+      <c r="F57">
+        <v>342.5615212527964</v>
+      </c>
+      <c r="G57">
+        <v>859.025447427293</v>
+      </c>
+      <c r="H57">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="I57">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J57">
+        <v>-9.83</v>
+      </c>
+      <c r="K57">
+        <v>-3.92</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-3.92</v>
+      </c>
+      <c r="N57">
+        <v>-5.91</v>
+      </c>
+      <c r="O57">
+        <v>-5.91</v>
+      </c>
+      <c r="P57">
+        <v>-5.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>63.7124987</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43086</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43086</v>
+      </c>
+      <c r="F58">
+        <v>228.9205461659283</v>
+      </c>
+      <c r="G58">
+        <v>229.9107757329254</v>
+      </c>
+      <c r="H58">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I58">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J58">
+        <v>14648.19</v>
+      </c>
+      <c r="K58">
+        <v>14585.1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>14585.1</v>
+      </c>
+      <c r="N58">
+        <v>63.09000000000015</v>
+      </c>
+      <c r="O58">
+        <v>63.09000000000015</v>
+      </c>
+      <c r="P58">
+        <v>63.09000000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59">
+        <v>0.25536072</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43086</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43087</v>
+      </c>
+      <c r="F59">
+        <v>228.9310587783431</v>
+      </c>
+      <c r="G59">
+        <v>258.6537193347513</v>
+      </c>
+      <c r="H59">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I59">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J59">
+        <v>66.05</v>
+      </c>
+      <c r="K59">
+        <v>58.46</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>58.46</v>
+      </c>
+      <c r="N59">
+        <v>7.589999999999996</v>
+      </c>
+      <c r="O59">
+        <v>7.589999999999996</v>
+      </c>
+      <c r="P59">
+        <v>7.589999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>56.07346571999999</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43087</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43087</v>
+      </c>
+      <c r="F60">
+        <v>263.5883088412036</v>
+      </c>
+      <c r="G60">
+        <v>258.6544244014315</v>
+      </c>
+      <c r="H60">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I60">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J60">
+        <v>14503.65</v>
+      </c>
+      <c r="K60">
+        <v>14780.31</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>14780.31</v>
+      </c>
+      <c r="N60">
+        <v>-276.6599999999999</v>
+      </c>
+      <c r="O60">
+        <v>-276.6599999999999</v>
+      </c>
+      <c r="P60">
+        <v>-276.6599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>0.22544323</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43087</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43090</v>
+      </c>
+      <c r="F61">
+        <v>263.6583941775497</v>
+      </c>
+      <c r="G61">
+        <v>257.5371192117856</v>
+      </c>
+      <c r="H61">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I61">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J61">
+        <v>58.06</v>
+      </c>
+      <c r="K61">
+        <v>59.44</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>59.44</v>
+      </c>
+      <c r="N61">
+        <v>-1.379999999999995</v>
+      </c>
+      <c r="O61">
+        <v>-1.379999999999995</v>
+      </c>
+      <c r="P61">
+        <v>-1.379999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>1.64898697</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43088</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43090</v>
+      </c>
+      <c r="F62">
+        <v>255.5629654247662</v>
+      </c>
+      <c r="G62">
+        <v>257.0062757985286</v>
+      </c>
+      <c r="H62">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I62">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J62">
+        <v>423.8</v>
+      </c>
+      <c r="K62">
+        <v>421.42</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>421.42</v>
+      </c>
+      <c r="N62">
+        <v>2.379999999999995</v>
+      </c>
+      <c r="O62">
+        <v>2.379999999999995</v>
+      </c>
+      <c r="P62">
+        <v>2.379999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>113.96</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43089</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43089</v>
+      </c>
+      <c r="F63">
+        <v>3.429448929448929</v>
+      </c>
+      <c r="G63">
+        <v>3.431993681993682</v>
+      </c>
+      <c r="H63">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I63">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J63">
+        <v>391.11</v>
+      </c>
+      <c r="K63">
+        <v>390.82</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>390.82</v>
+      </c>
+      <c r="N63">
+        <v>0.2900000000000205</v>
+      </c>
+      <c r="O63">
+        <v>0.2900000000000205</v>
+      </c>
+      <c r="P63">
+        <v>0.2900000000000205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>199.60000003</v>
+      </c>
+      <c r="D64" s="2">
+        <v>42959</v>
+      </c>
+      <c r="E64" s="2">
+        <v>42990</v>
+      </c>
+      <c r="F64">
+        <v>10.72004007854909</v>
+      </c>
+      <c r="G64">
+        <v>9.851352703930157</v>
+      </c>
+      <c r="H64">
+        <v>33670290.8148514</v>
+      </c>
+      <c r="I64">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J64">
+        <v>1966.33</v>
+      </c>
+      <c r="K64">
+        <v>2139.72</v>
+      </c>
+      <c r="L64">
+        <v>2.13971999999967</v>
+      </c>
+      <c r="M64">
+        <v>2141.859719999999</v>
+      </c>
+      <c r="N64">
+        <v>-173.3899999999999</v>
+      </c>
+      <c r="O64">
+        <v>-175.5297199999995</v>
+      </c>
+      <c r="P64">
+        <v>-173.3899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E65" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F65">
+        <v>640.845</v>
+      </c>
+      <c r="G65">
+        <v>650.005</v>
+      </c>
+      <c r="H65">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I65">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J65">
+        <v>1300.01</v>
+      </c>
+      <c r="K65">
+        <v>1281.69</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1281.69</v>
+      </c>
+      <c r="N65">
+        <v>18.31999999999994</v>
+      </c>
+      <c r="O65">
+        <v>18.31999999999994</v>
+      </c>
+      <c r="P65">
+        <v>18.31999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43088</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43089</v>
+      </c>
+      <c r="F66">
+        <v>1274.125</v>
+      </c>
+      <c r="G66">
+        <v>1435.895</v>
+      </c>
+      <c r="H66">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I66">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J66">
+        <v>2871.79</v>
+      </c>
+      <c r="K66">
+        <v>2548.25</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>2548.25</v>
+      </c>
+      <c r="N66">
+        <v>323.54</v>
+      </c>
+      <c r="O66">
+        <v>323.54</v>
+      </c>
+      <c r="P66">
+        <v>323.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>998.2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E67" s="2">
+        <v>42747</v>
+      </c>
+      <c r="F67">
+        <v>0.9272189941895412</v>
+      </c>
+      <c r="G67">
+        <v>0.8598677619715487</v>
+      </c>
+      <c r="H67">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I67">
+        <v>33535878.4762692</v>
+      </c>
+      <c r="J67">
+        <v>858.3199999999999</v>
+      </c>
+      <c r="K67">
+        <v>925.5500000000001</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>925.5500000000001</v>
+      </c>
+      <c r="N67">
+        <v>-67.23000000000013</v>
+      </c>
+      <c r="O67">
+        <v>-67.23000000000013</v>
+      </c>
+      <c r="P67">
+        <v>-67.23000000000013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>3.6</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43067</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43090</v>
+      </c>
+      <c r="F68">
+        <v>0.9277777777777777</v>
+      </c>
+      <c r="G68">
+        <v>2.972222222222222</v>
+      </c>
+      <c r="H68">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I68">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J68">
+        <v>10.7</v>
+      </c>
+      <c r="K68">
+        <v>3.34</v>
+      </c>
+      <c r="L68">
+        <v>0.003339999999999677</v>
+      </c>
+      <c r="M68">
+        <v>3.34334</v>
+      </c>
+      <c r="N68">
+        <v>7.359999999999999</v>
+      </c>
+      <c r="O68">
+        <v>7.35666</v>
+      </c>
+      <c r="P68">
+        <v>7.35666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>196.4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43088</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43090</v>
+      </c>
+      <c r="F69">
+        <v>2.704276985743381</v>
+      </c>
+      <c r="G69">
+        <v>2.969908350305499</v>
+      </c>
+      <c r="H69">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I69">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J69">
+        <v>583.29</v>
+      </c>
+      <c r="K69">
+        <v>531.12</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>531.12</v>
+      </c>
+      <c r="N69">
+        <v>52.16999999999996</v>
+      </c>
+      <c r="O69">
+        <v>52.16999999999996</v>
+      </c>
+      <c r="P69">
+        <v>52.16999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43088</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43089</v>
+      </c>
+      <c r="F70">
+        <v>1986.62</v>
+      </c>
+      <c r="G70">
+        <v>2136.33</v>
+      </c>
+      <c r="H70">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="I70">
+        <v>33737496.9841425</v>
+      </c>
+      <c r="J70">
+        <v>2136.33</v>
+      </c>
+      <c r="K70">
+        <v>1986.62</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1986.62</v>
+      </c>
+      <c r="N70">
+        <v>149.71</v>
+      </c>
+      <c r="O70">
+        <v>149.71</v>
+      </c>
+      <c r="P70">
+        <v>149.71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.05" top="0.4" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="40" orientation="landscape"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;D&amp;Cנספח לטופס רווח הון בגין מכירת מטבעות וירטואליים, שנת {year}&amp;Rשם</oddHeader>
+    <oddHeader>&amp;L&amp;D&amp;Cנספח לטופס רווח הון בגין מכירת מטבעות וירטואליים, שנת 2017&amp;Rשם</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/2017_gains (21)_edited.xlsx
+++ b/2017_gains (21)_edited.xlsx
@@ -70,6 +70,57 @@
     <t>א21</t>
   </si>
   <si>
+    <t>AVT</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>EDO</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>QSH</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>XMR</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>ZEC</t>
+  </si>
+  <si>
+    <t>עסקה</t>
+  </si>
+  <si>
     <t>מטבע</t>
   </si>
   <si>
@@ -113,57 +164,6 @@
   </si>
   <si>
     <t>רווח-הפסד לצורכי מס</t>
-  </si>
-  <si>
-    <t>עסקה</t>
-  </si>
-  <si>
-    <t>AVT</t>
-  </si>
-  <si>
-    <t>BCH</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>DAT</t>
-  </si>
-  <si>
-    <t>EDO</t>
-  </si>
-  <si>
-    <t>EOS</t>
-  </si>
-  <si>
-    <t>ETC</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>IOT</t>
-  </si>
-  <si>
-    <t>LTC</t>
-  </si>
-  <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>QSH</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>XMR</t>
-  </si>
-  <si>
-    <t>XRP</t>
-  </si>
-  <si>
-    <t>ZEC</t>
   </si>
 </sst>
 </file>
@@ -225,10 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -607,53 +610,53 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>31</v>
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -661,15 +664,15 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>200</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>42959</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>42959</v>
       </c>
       <c r="F14">
@@ -711,15 +714,15 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>0.0316707</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>42867</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>42867</v>
       </c>
       <c r="F15">
@@ -761,15 +764,15 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0.09478599</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>43019</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>43019</v>
       </c>
       <c r="F16">
@@ -811,15 +814,15 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>0.01978829</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>43054</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>43054</v>
       </c>
       <c r="F17">
@@ -861,15 +864,15 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0.10431667</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>43055</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>43056</v>
       </c>
       <c r="F18">
@@ -911,15 +914,15 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>7.56E-06</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>43055</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>43067</v>
       </c>
       <c r="F19">
@@ -961,15 +964,15 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1.27468423</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>43064</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>43067</v>
       </c>
       <c r="F20">
@@ -1011,15 +1014,15 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>0.05051065</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>43067</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>43067</v>
       </c>
       <c r="F21">
@@ -1061,15 +1064,15 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>0.06778575000000001</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>43089</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>43089</v>
       </c>
       <c r="F22">
@@ -1111,15 +1114,15 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>0.00393396</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>42747</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>42959</v>
       </c>
       <c r="F23">
@@ -1161,15 +1164,15 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>0.02974378</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>42898</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>42959</v>
       </c>
       <c r="F24">
@@ -1211,15 +1214,15 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>0.02580108</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>43055</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>42959</v>
       </c>
       <c r="F25">
@@ -1261,15 +1264,15 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>0.24275606</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>43056</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>42959</v>
       </c>
       <c r="F26">
@@ -1311,15 +1314,15 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>0.00408624</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>42745</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>43055</v>
       </c>
       <c r="F27">
@@ -1361,15 +1364,15 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>0.22928587</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>43023</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>43055</v>
       </c>
       <c r="F28">
@@ -1411,15 +1414,15 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>0.17678038</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>42866</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>43056</v>
       </c>
       <c r="F29">
@@ -1461,15 +1464,15 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>0.01518587</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>43023</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>43056</v>
       </c>
       <c r="F30">
@@ -1511,15 +1514,15 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>0.008195630000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>42866</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>43064</v>
       </c>
       <c r="F31">
@@ -1561,15 +1564,15 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>0.0144695</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>43019</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>43064</v>
       </c>
       <c r="F32">
@@ -1611,15 +1614,15 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>0.05392455</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>43053</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>43064</v>
       </c>
       <c r="F33">
@@ -1661,15 +1664,15 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>0.16616561</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>43055</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>43064</v>
       </c>
       <c r="F34">
@@ -1711,15 +1714,15 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>1000</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>43067</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>42747</v>
       </c>
       <c r="F35">
@@ -1761,15 +1764,15 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>199.6</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>42959</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>42959</v>
       </c>
       <c r="F36">
@@ -1811,15 +1814,15 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>0.8</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>42959</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>43086</v>
       </c>
       <c r="F37">
@@ -1861,15 +1864,15 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>1342.608694</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>43086</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>43086</v>
       </c>
       <c r="F38">
@@ -1911,15 +1914,15 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>199.99999996</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>42959</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>42959</v>
       </c>
       <c r="F39">
@@ -1961,15 +1964,15 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>43067</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>42747</v>
       </c>
       <c r="F40">
@@ -2011,15 +2014,15 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>2.413E-05</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>43055</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>42747</v>
       </c>
       <c r="F41">
@@ -2061,15 +2064,15 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>0.99997587</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>43067</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>42747</v>
       </c>
       <c r="F42">
@@ -2111,15 +2114,15 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>0.68207587</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>43055</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>43056</v>
       </c>
       <c r="F43">
@@ -2161,15 +2164,15 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>2.413E-05</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>43067</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>43097</v>
       </c>
       <c r="F44">
@@ -2211,15 +2214,15 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>1.99997587</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>43088</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>43097</v>
       </c>
       <c r="F45">
@@ -2261,15 +2264,15 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>-0.03051529</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>43067</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>42867</v>
       </c>
       <c r="F46">
@@ -2311,15 +2314,15 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>445.66874599</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>42747</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>42898</v>
       </c>
       <c r="F47">
@@ -2361,15 +2364,15 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>410.7654271699999</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>42867</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>42898</v>
       </c>
       <c r="F48">
@@ -2411,15 +2414,15 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>2866.72992766</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>42898</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>42898</v>
       </c>
       <c r="F49">
@@ -2461,15 +2464,15 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>100.03051529</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>43067</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>42898</v>
       </c>
       <c r="F50">
@@ -2511,15 +2514,15 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>200</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>42959</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>43020</v>
       </c>
       <c r="F51">
@@ -2561,15 +2564,15 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>200</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>43089</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>43089</v>
       </c>
       <c r="F52">
@@ -2611,15 +2614,15 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>-0.00945471</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>43067</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>42747</v>
       </c>
       <c r="F53">
@@ -2661,15 +2664,15 @@
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>6.989898700000001</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>42747</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>42867</v>
       </c>
       <c r="F54">
@@ -2711,15 +2714,15 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>5.58194444</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>43067</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>42867</v>
       </c>
       <c r="F55">
@@ -2761,15 +2764,15 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>-0.00054848</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>42747</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>43090</v>
       </c>
       <c r="F56">
@@ -2811,15 +2814,15 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>-0.0114432</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>42747</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>43097</v>
       </c>
       <c r="F57">
@@ -2861,15 +2864,15 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>63.7124987</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>43086</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>43086</v>
       </c>
       <c r="F58">
@@ -2911,15 +2914,15 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>0.25536072</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>43086</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>43087</v>
       </c>
       <c r="F59">
@@ -2961,15 +2964,15 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>56.07346571999999</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>43087</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>43087</v>
       </c>
       <c r="F60">
@@ -3011,15 +3014,15 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>0.22544323</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>43087</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>43090</v>
       </c>
       <c r="F61">
@@ -3061,15 +3064,15 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>1.64898697</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>43088</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>43090</v>
       </c>
       <c r="F62">
@@ -3111,15 +3114,15 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>113.96</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>43089</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>43089</v>
       </c>
       <c r="F63">
@@ -3161,15 +3164,15 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>199.60000003</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>42959</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>42990</v>
       </c>
       <c r="F64">
@@ -3211,15 +3214,15 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>43067</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>42747</v>
       </c>
       <c r="F65">
@@ -3261,15 +3264,15 @@
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>43088</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>43089</v>
       </c>
       <c r="F66">
@@ -3311,15 +3314,15 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>998.2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>43067</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>42747</v>
       </c>
       <c r="F67">
@@ -3361,15 +3364,15 @@
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>3.6</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>43067</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>43090</v>
       </c>
       <c r="F68">
@@ -3411,15 +3414,15 @@
         <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>196.4</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>43088</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>43090</v>
       </c>
       <c r="F69">
@@ -3461,15 +3464,15 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>43088</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>43089</v>
       </c>
       <c r="F70">

--- a/2017_gains (21)_edited.xlsx
+++ b/2017_gains (21)_edited.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>a</t>
   </si>
@@ -25,49 +25,40 @@
     <t>b</t>
   </si>
   <si>
+    <t>תמורה כוללת בש"ח/שווי עסקאות ברטר</t>
+  </si>
+  <si>
+    <t>עלות מחיר מקור</t>
+  </si>
+  <si>
+    <t>רווח/הפסד לצורכי מס</t>
+  </si>
+  <si>
+    <t>הוצאות הקשורות במכירה שלא הופחתו מן התמורה</t>
+  </si>
+  <si>
+    <t>רווח\הפסד לייחוס</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>21א</t>
+  </si>
+  <si>
     <t>ריכוז סעיפים בש"ח / שווי עסקאות ברטר</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>שדה</t>
   </si>
   <si>
     <t>סכום</t>
-  </si>
-  <si>
-    <t>תמורה כוללת בש"ח/שווי עסקאות ברטר</t>
-  </si>
-  <si>
-    <t>עלות מחיר מקור</t>
-  </si>
-  <si>
-    <t>רווח/הפסד לצורכי מס</t>
-  </si>
-  <si>
-    <t>הוצאות הקשורות במכירה שלא הופחתו מן התמורה</t>
-  </si>
-  <si>
-    <t>רווח\הפסד לייחוס</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>א21</t>
   </si>
   <si>
     <t>AVT</t>
@@ -170,16 +161,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * -??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * -#,##0.0_ ;_ * -??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="David"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -225,15 +225,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,34 +537,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>182703.43</v>
@@ -570,10 +569,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>166096.2269805</v>
@@ -581,7 +580,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>16607.20301950001</v>
@@ -589,10 +588,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -600,79 +599,79 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>16607.20301950001</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="P13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1">
-        <v>0</v>
+      <c r="A14" s="4">
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>200</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>42959</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>42959</v>
       </c>
       <c r="F14">
@@ -681,48 +680,48 @@
       <c r="G14">
         <v>11.6089</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>2321.78</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>2589.08</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>2589.08</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>-267.2999999999997</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>-267.2999999999997</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>-267.2999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1">
-        <v>1</v>
+      <c r="A15" s="4">
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0.0316707</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>42867</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>42867</v>
       </c>
       <c r="F15">
@@ -731,48 +730,48 @@
       <c r="G15">
         <v>5305.534768729457</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>168.03</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <v>168.03</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>168.03</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>168.03</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1">
-        <v>2</v>
+      <c r="A16" s="4">
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0.09478599</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>43019</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>43019</v>
       </c>
       <c r="F16">
@@ -781,48 +780,48 @@
       <c r="G16">
         <v>3626.274304884087</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>33804703.1534337</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>33804703.1534337</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>343.72</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
         <v>343.72</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>343.72</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <v>343.72</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1">
-        <v>3</v>
+      <c r="A17" s="4">
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0.01978829</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>43054</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>43054</v>
       </c>
       <c r="F17">
@@ -831,48 +830,48 @@
       <c r="G17">
         <v>4677.513822568802</v>
       </c>
-      <c r="H17">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I17">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I17" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J17" s="2">
         <v>92.56</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
         <v>92.56</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <v>92.56</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <v>92.56</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1">
-        <v>4</v>
+      <c r="A18" s="4">
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0.10431667</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>43055</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>43056</v>
       </c>
       <c r="F18">
@@ -881,48 +880,48 @@
       <c r="G18">
         <v>4216.967431955027</v>
       </c>
-      <c r="H18">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I18">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J18">
+      <c r="H18" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I18" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J18" s="2">
         <v>439.9</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>387.49</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>387.49</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>52.40999999999997</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>52.40999999999997</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>52.40999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1">
-        <v>5</v>
+      <c r="A19" s="4">
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>7.56E-06</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>43055</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>43067</v>
       </c>
       <c r="F19">
@@ -931,48 +930,48 @@
       <c r="G19">
         <v>5291.005291005292</v>
       </c>
-      <c r="H19">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I19">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J19">
+      <c r="H19" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I19" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J19" s="2">
         <v>0.04</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>0.03</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <v>0.03</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>0.01</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>0.01</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1">
-        <v>6</v>
+      <c r="A20" s="4">
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1.27468423</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>43064</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>43067</v>
       </c>
       <c r="F20">
@@ -981,48 +980,48 @@
       <c r="G20">
         <v>5256.070360264832</v>
       </c>
-      <c r="H20">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I20">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J20">
+      <c r="H20" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I20" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J20" s="2">
         <v>6699.83</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>7237.43</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <v>7237.43</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>-537.6000000000004</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>-537.6000000000004</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <v>-537.6000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1">
-        <v>7</v>
+      <c r="A21" s="4">
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>0.05051065</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>43067</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>43067</v>
       </c>
       <c r="F21">
@@ -1031,48 +1030,48 @@
       <c r="G21">
         <v>5256.119254058303</v>
       </c>
-      <c r="H21">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I21">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I21" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J21" s="2">
         <v>265.49</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
         <v>265.49</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>265.49</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="2">
         <v>265.49</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1">
-        <v>8</v>
+      <c r="A22" s="4">
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0.06778575000000001</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>43089</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>43089</v>
       </c>
       <c r="F22">
@@ -1081,48 +1080,48 @@
       <c r="G22">
         <v>12958.03321494562</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>878.37</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
         <v>878.37</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>878.37</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>878.37</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1">
-        <v>9</v>
+      <c r="A23" s="4">
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0.00393396</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>42747</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>42959</v>
       </c>
       <c r="F23">
@@ -1131,48 +1130,48 @@
       <c r="G23">
         <v>51853.60298528709</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>203.99</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>137.1</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>0.5497710000000211</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>137.649771</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <v>66.89000000000001</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <v>66.34022899999999</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="2">
         <v>66.34022899999999</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1">
-        <v>10</v>
+      <c r="A24" s="4">
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>0.02974378</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>42898</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>42959</v>
       </c>
       <c r="F24">
@@ -1181,48 +1180,48 @@
       <c r="G24">
         <v>51854.87520416033</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>33603084.6455603</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>1542.36</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>1346.09</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>2.692180000000008</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>1348.78218</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>196.27</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <v>193.57782</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="2">
         <v>193.57782</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1">
-        <v>11</v>
+      <c r="A25" s="4">
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>0.02580108</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>43055</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>42959</v>
       </c>
       <c r="F25">
@@ -1231,48 +1230,48 @@
       <c r="G25">
         <v>51854.80607788511</v>
       </c>
-      <c r="H25">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I25" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>1337.91</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>723.27</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
         <v>723.27</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>614.6400000000001</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>614.6400000000001</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>614.6400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1">
-        <v>12</v>
+      <c r="A26" s="4">
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>0.24275606</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>43056</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>42959</v>
       </c>
       <c r="F26">
@@ -1281,48 +1280,48 @@
       <c r="G26">
         <v>51854.81260488409</v>
       </c>
-      <c r="H26">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I26" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>12588.07</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>6627.91</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
         <v>6627.91</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="2">
         <v>5960.16</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <v>5960.16</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="2">
         <v>5960.16</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1">
-        <v>13</v>
+      <c r="A27" s="4">
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>0.00408624</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>42745</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>43055</v>
       </c>
       <c r="F27">
@@ -1331,48 +1330,48 @@
       <c r="G27">
         <v>27746.77943537335</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="I27">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J27" s="2">
         <v>113.38</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>61.89</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>0.3100688999999974</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>62.2000689</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>51.48999999999999</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <v>51.1799311</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="2">
         <v>51.1799311</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1">
-        <v>14</v>
+      <c r="A28" s="4">
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>0.22928587</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>43023</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <v>43055</v>
       </c>
       <c r="F28">
@@ -1381,48 +1380,48 @@
       <c r="G28">
         <v>27784.00605322953</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>33804703.1534337</v>
       </c>
-      <c r="I28">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J28" s="2">
         <v>6370.48</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>4689.41</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <v>4689.41</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="2">
         <v>1681.07</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <v>1681.07</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="2">
         <v>1681.07</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="1">
-        <v>15</v>
+      <c r="A29" s="4">
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>0.17678038</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>42866</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>43056</v>
       </c>
       <c r="F29">
@@ -1431,48 +1430,48 @@
       <c r="G29">
         <v>28244.42395700247</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="I29">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J29" s="2">
         <v>4993.06</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>4777.51</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
         <v>4777.51</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="2">
         <v>215.5500000000002</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="2">
         <v>215.5500000000002</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="2">
         <v>215.5500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
         <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
       </c>
       <c r="C30">
         <v>0.01518587</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>43023</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>43056</v>
       </c>
       <c r="F30">
@@ -1481,48 +1480,48 @@
       <c r="G30">
         <v>28244.6774534485</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>33804703.1534337</v>
       </c>
-      <c r="I30">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J30" s="2">
         <v>428.92</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>310.59</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>310.59</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="2">
         <v>118.33</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="2">
         <v>118.33</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="2">
         <v>118.33</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="1">
-        <v>17</v>
+      <c r="A31" s="4">
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>0.008195630000000001</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>42866</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>43064</v>
       </c>
       <c r="F31">
@@ -1531,48 +1530,48 @@
       <c r="G31">
         <v>29840.29293660158</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="I31">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J31" s="2">
         <v>244.56</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>221.49</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
         <v>221.49</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <v>23.06999999999999</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <v>23.06999999999999</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="2">
         <v>23.06999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="1">
-        <v>18</v>
+      <c r="A32" s="4">
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>0.0144695</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>43019</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>43064</v>
       </c>
       <c r="F32">
@@ -1581,48 +1580,48 @@
       <c r="G32">
         <v>29840.00829330661</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>33804703.1534337</v>
       </c>
-      <c r="I32">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J32" s="2">
         <v>431.77</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>343</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
         <v>343</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="2">
         <v>88.76999999999998</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <v>88.76999999999998</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="2">
         <v>88.76999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="1">
-        <v>19</v>
+      <c r="A33" s="4">
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>0.05392455</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>43053</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <v>43064</v>
       </c>
       <c r="F33">
@@ -1631,48 +1630,48 @@
       <c r="G33">
         <v>29839.84103715283</v>
       </c>
-      <c r="H33">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I33">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J33">
+      <c r="H33" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I33" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J33" s="2">
         <v>1609.1</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>1390.92</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
         <v>1390.92</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>218.1799999999998</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <v>218.1799999999998</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="2">
         <v>218.1799999999998</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="1">
-        <v>20</v>
+      <c r="A34" s="4">
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>0.16616561</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>43055</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>43064</v>
       </c>
       <c r="F34">
@@ -1681,48 +1680,48 @@
       <c r="G34">
         <v>29839.9891529902</v>
       </c>
-      <c r="H34">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I34">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J34">
+      <c r="H34" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I34" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J34" s="2">
         <v>4958.38</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>4658.05</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
         <v>4658.05</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="2">
         <v>300.3299999999999</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="2">
         <v>300.3299999999999</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="2">
         <v>300.3299999999999</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="1">
-        <v>21</v>
+      <c r="A35" s="4">
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>1000</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>43067</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <v>42747</v>
       </c>
       <c r="F35">
@@ -1731,48 +1730,48 @@
       <c r="G35">
         <v>0.36758</v>
       </c>
-      <c r="H35">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I35" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>367.58</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>348.8</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
         <v>348.8</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="2">
         <v>18.78000000000003</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="2">
         <v>18.78000000000003</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="2">
         <v>18.78000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="1">
-        <v>22</v>
+      <c r="A36" s="4">
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>199.6</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>42959</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <v>42959</v>
       </c>
       <c r="F36">
@@ -1781,48 +1780,48 @@
       <c r="G36">
         <v>8.429659318637276</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>1682.56</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>1708.1</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
         <v>1708.1</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>-25.53999999999996</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <v>-25.53999999999996</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="2">
         <v>-25.53999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="1">
-        <v>23</v>
+      <c r="A37" s="4">
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>0.8</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>42959</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <v>43086</v>
       </c>
       <c r="F37">
@@ -1831,48 +1830,48 @@
       <c r="G37">
         <v>11.0625</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>8.85</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>6.86</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>0.01372000000000018</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>6.87372</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>1.989999999999999</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <v>1.976279999999999</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="2">
         <v>1.976279999999999</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="1">
-        <v>24</v>
+      <c r="A38" s="4">
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1342.608694</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>43086</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <v>43086</v>
       </c>
       <c r="F38">
@@ -1881,48 +1880,48 @@
       <c r="G38">
         <v>11.05680312241446</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>14844.96</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>14578.4</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>14578.4</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>266.5599999999995</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <v>266.5599999999995</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="2">
         <v>266.5599999999995</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="1">
-        <v>25</v>
+      <c r="A39" s="4">
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>199.99999996</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>42959</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <v>42959</v>
       </c>
       <c r="F39">
@@ -1931,48 +1930,48 @@
       <c r="G39">
         <v>14.42275000288455</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>2884.55</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>3021.99</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
         <v>3021.99</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <v>-137.4399999999996</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="2">
         <v>-137.4399999999996</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="2">
         <v>-137.4399999999996</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="1">
-        <v>26</v>
+      <c r="A40" s="4">
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>43067</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <v>42747</v>
       </c>
       <c r="F40">
@@ -1981,48 +1980,48 @@
       <c r="G40">
         <v>103.662</v>
       </c>
-      <c r="H40">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I40" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>518.3100000000001</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>537.04</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
         <v>537.04</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <v>-18.7299999999999</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <v>-18.7299999999999</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="2">
         <v>-18.7299999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="1">
-        <v>27</v>
+      <c r="A41" s="4">
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>2.413E-05</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>43055</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>42747</v>
       </c>
       <c r="F41">
@@ -2031,48 +2030,48 @@
       <c r="G41">
         <v>1657.687525901368</v>
       </c>
-      <c r="H41">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I41" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>0.04</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>0.03</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
         <v>0.03</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>0.01</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <v>0.01</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="1">
-        <v>28</v>
+      <c r="A42" s="4">
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>0.99997587</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>43067</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <v>42747</v>
       </c>
       <c r="F42">
@@ -2081,48 +2080,48 @@
       <c r="G42">
         <v>1621.039115673861</v>
       </c>
-      <c r="H42">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I42">
+      <c r="H42" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I42" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>1621</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>1620.6</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>1620.6</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="2">
         <v>0.4000000000000909</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="2">
         <v>0.4000000000000909</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="2">
         <v>0.4000000000000909</v>
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="1">
-        <v>29</v>
+      <c r="A43" s="4">
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>0.68207587</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>43055</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <v>43056</v>
       </c>
       <c r="F43">
@@ -2131,48 +2130,48 @@
       <c r="G43">
         <v>1162.37802108437</v>
       </c>
-      <c r="H43">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I43">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J43">
+      <c r="H43" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I43" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J43" s="2">
         <v>792.83</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>808.16</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
         <v>808.16</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="2">
         <v>-15.32999999999993</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="2">
         <v>-15.32999999999993</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="2">
         <v>-15.32999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="1">
-        <v>30</v>
+      <c r="A44" s="4">
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>2.413E-05</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>43067</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <v>43097</v>
       </c>
       <c r="F44">
@@ -2181,48 +2180,48 @@
       <c r="G44">
         <v>2486.531288852051</v>
       </c>
-      <c r="H44">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I44">
+      <c r="H44" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I44" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>0.06</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>0.04</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>3.999999999999837E-05</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="2">
         <v>0.04004</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>0.02</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <v>0.01996</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="2">
         <v>0.01996</v>
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="1">
-        <v>31</v>
+      <c r="A45" s="4">
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>1.99997587</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>43088</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <v>43097</v>
       </c>
       <c r="F45">
@@ -2231,48 +2230,48 @@
       <c r="G45">
         <v>2450.589566363118</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>4901.12</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>5765.349999999999</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
         <v>5765.349999999999</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="2">
         <v>-864.2299999999996</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="2">
         <v>-864.2299999999996</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="2">
         <v>-864.2299999999996</v>
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="1">
-        <v>32</v>
+      <c r="A46" s="4">
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>-0.03051529</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>43067</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>42867</v>
       </c>
       <c r="F46">
@@ -2281,48 +2280,48 @@
       <c r="G46">
         <v>15.07441023827727</v>
       </c>
-      <c r="H46">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I46">
+      <c r="H46" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I46" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>-0.46</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>-0.13</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
         <v>-0.13</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="2">
         <v>-0.33</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="2">
         <v>-0.33</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="2">
         <v>-0.33</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="1">
-        <v>33</v>
+      <c r="A47" s="4">
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>445.66874599</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>42747</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>42898</v>
       </c>
       <c r="F47">
@@ -2331,48 +2330,48 @@
       <c r="G47">
         <v>16.26791213257453</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>33603084.6455603</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>7250.1</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>2262.1</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <v>4.524199999999837</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="2">
         <v>2266.6242</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <v>4988</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <v>4983.4758</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="2">
         <v>4983.4758</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="1">
-        <v>34</v>
+      <c r="A48" s="4">
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>410.7654271699999</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>42867</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <v>42898</v>
       </c>
       <c r="F48">
@@ -2381,48 +2380,48 @@
       <c r="G48">
         <v>16.26821430917166</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>33603084.6455603</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>6682.42</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>4614.73</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
         <v>4614.73</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="2">
         <v>2067.69</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="2">
         <v>2067.69</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="2">
         <v>2067.69</v>
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="1">
-        <v>35</v>
+      <c r="A49" s="4">
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>2866.72992766</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>42898</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <v>42898</v>
       </c>
       <c r="F49">
@@ -2431,48 +2430,48 @@
       <c r="G49">
         <v>15.09319367078226</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>33603084.6455603</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>33603084.6455603</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>43268.11000000001</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <v>44742.78999999999</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
         <v>44742.78999999999</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="2">
         <v>-1474.679999999986</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="2">
         <v>-1474.679999999986</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="2">
         <v>-1474.679999999986</v>
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="1">
-        <v>36</v>
+      <c r="A50" s="4">
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>100.03051529</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>43067</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <v>42898</v>
       </c>
       <c r="F50">
@@ -2481,48 +2480,48 @@
       <c r="G50">
         <v>16.26803576171001</v>
       </c>
-      <c r="H50">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I50">
+      <c r="H50" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I50" s="1">
         <v>33603084.6455603</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>1627.3</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>432.69</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
         <v>432.69</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>1194.61</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <v>1194.61</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="2">
         <v>1194.61</v>
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="1">
-        <v>37</v>
+      <c r="A51" s="4">
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>200</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>42959</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>43020</v>
       </c>
       <c r="F51">
@@ -2531,48 +2530,48 @@
       <c r="G51">
         <v>13.0433</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>33804703.1534337</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>2608.66</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>2879.4</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <v>11.48880599999984</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <v>2890.888806</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <v>-270.7400000000002</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <v>-282.2288060000001</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="2">
         <v>-270.7400000000002</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="1">
-        <v>38</v>
+      <c r="A52" s="4">
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>200</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>43089</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>43089</v>
       </c>
       <c r="F52">
@@ -2581,48 +2580,48 @@
       <c r="G52">
         <v>16.8115</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>3362.3</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>3358.84</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
         <v>3358.84</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="2">
         <v>3.460000000000036</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="2">
         <v>3.460000000000036</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="2">
         <v>3.460000000000036</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="1">
-        <v>39</v>
+      <c r="A53" s="4">
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>-0.00945471</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="5">
         <v>43067</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <v>42747</v>
       </c>
       <c r="F53">
@@ -2631,48 +2630,48 @@
       <c r="G53">
         <v>310.95612662895</v>
       </c>
-      <c r="H53">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I53" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <v>-2.94</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <v>-3</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <v>0.01496999999999993</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <v>-2.98503</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="2">
         <v>0.06000000000000005</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="2">
         <v>0.04503000000000013</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="2">
         <v>0.04503000000000013</v>
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="1">
-        <v>40</v>
+      <c r="A54" s="4">
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>6.989898700000001</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="5">
         <v>42747</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <v>42867</v>
       </c>
       <c r="F54">
@@ -2681,48 +2680,48 @@
       <c r="G54">
         <v>353.7404626479064</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <v>2472.61</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="2">
         <v>2391.58</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <v>21.57205160000012</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="2">
         <v>2413.1520516</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <v>81.0300000000002</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="2">
         <v>59.45794840000008</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="2">
         <v>59.45794840000008</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="1">
-        <v>41</v>
+      <c r="A55" s="4">
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>5.58194444</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>43067</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="5">
         <v>42867</v>
       </c>
       <c r="F55">
@@ -2731,48 +2730,48 @@
       <c r="G55">
         <v>353.7405327524185</v>
       </c>
-      <c r="H55">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I55">
+      <c r="H55" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I55" s="1">
         <v>33838306.2380792</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>1974.56</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <v>1776.1</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <v>7.086638999999877</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="2">
         <v>1783.186639</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="2">
         <v>198.4600000000003</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="2">
         <v>191.3733610000004</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="2">
         <v>191.3733610000004</v>
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="1">
-        <v>42</v>
+      <c r="A56" s="4">
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <v>-0.00054848</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="5">
         <v>42747</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="5">
         <v>43090</v>
       </c>
       <c r="F56">
@@ -2781,48 +2780,48 @@
       <c r="G56">
         <v>1075.700116686114</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <v>-0.59</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <v>-0.19</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
         <v>-0.19</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="2">
         <v>-0.4</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="2">
         <v>-0.4</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="2">
         <v>-0.4</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="1">
-        <v>43</v>
+      <c r="A57" s="4">
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>-0.0114432</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="5">
         <v>42747</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="5">
         <v>43097</v>
       </c>
       <c r="F57">
@@ -2831,48 +2830,48 @@
       <c r="G57">
         <v>859.025447427293</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <v>-9.83</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <v>-3.92</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
         <v>-3.92</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="2">
         <v>-5.91</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="2">
         <v>-5.91</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="2">
         <v>-5.91</v>
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="1">
-        <v>44</v>
+      <c r="A58" s="4">
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>63.7124987</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="5">
         <v>43086</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="5">
         <v>43086</v>
       </c>
       <c r="F58">
@@ -2881,48 +2880,48 @@
       <c r="G58">
         <v>229.9107757329254</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <v>14648.19</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <v>14585.1</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
         <v>14585.1</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <v>63.09000000000015</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="2">
         <v>63.09000000000015</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="2">
         <v>63.09000000000015</v>
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="1">
-        <v>45</v>
+      <c r="A59" s="4">
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>0.25536072</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="5">
         <v>43086</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="5">
         <v>43087</v>
       </c>
       <c r="F59">
@@ -2931,48 +2930,48 @@
       <c r="G59">
         <v>258.6537193347513</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <v>66.05</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <v>58.46</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
         <v>58.46</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>7.589999999999996</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <v>7.589999999999996</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="2">
         <v>7.589999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="1">
-        <v>46</v>
+      <c r="A60" s="4">
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>56.07346571999999</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="5">
         <v>43087</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="5">
         <v>43087</v>
       </c>
       <c r="F60">
@@ -2981,48 +2980,48 @@
       <c r="G60">
         <v>258.6544244014315</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <v>14503.65</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <v>14780.31</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
         <v>14780.31</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <v>-276.6599999999999</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="2">
         <v>-276.6599999999999</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="2">
         <v>-276.6599999999999</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="1">
-        <v>47</v>
+      <c r="A61" s="4">
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>0.22544323</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="5">
         <v>43087</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="5">
         <v>43090</v>
       </c>
       <c r="F61">
@@ -3031,48 +3030,48 @@
       <c r="G61">
         <v>257.5371192117856</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <v>58.06</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <v>59.44</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
         <v>59.44</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <v>-1.379999999999995</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="2">
         <v>-1.379999999999995</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="2">
         <v>-1.379999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="1">
-        <v>48</v>
+      <c r="A62" s="4">
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>1.64898697</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="5">
         <v>43088</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="5">
         <v>43090</v>
       </c>
       <c r="F62">
@@ -3081,48 +3080,48 @@
       <c r="G62">
         <v>257.0062757985286</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <v>423.8</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="2">
         <v>421.42</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
         <v>421.42</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="2">
         <v>2.379999999999995</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="2">
         <v>2.379999999999995</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="2">
         <v>2.379999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="1">
-        <v>49</v>
+      <c r="A63" s="4">
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>113.96</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>43089</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="5">
         <v>43089</v>
       </c>
       <c r="F63">
@@ -3131,48 +3130,48 @@
       <c r="G63">
         <v>3.431993681993682</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <v>391.11</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <v>390.82</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
         <v>390.82</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="2">
         <v>0.2900000000000205</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="2">
         <v>0.2900000000000205</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="2">
         <v>0.2900000000000205</v>
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="1">
-        <v>50</v>
+      <c r="A64" s="4">
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>199.60000003</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="5">
         <v>42959</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="5">
         <v>42990</v>
       </c>
       <c r="F64">
@@ -3181,48 +3180,48 @@
       <c r="G64">
         <v>9.851352703930157</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>33670290.8148514</v>
       </c>
-      <c r="I64">
-        <v>33703893.899497</v>
-      </c>
-      <c r="J64">
+      <c r="I64" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="J64" s="2">
         <v>1966.33</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <v>2139.72</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <v>2.13971999999967</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <v>2141.859719999999</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="2">
         <v>-173.3899999999999</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="2">
         <v>-175.5297199999995</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="2">
         <v>-173.3899999999999</v>
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="1">
-        <v>51</v>
+      <c r="A65" s="4">
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
         <v>43067</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="5">
         <v>42747</v>
       </c>
       <c r="F65">
@@ -3231,48 +3230,48 @@
       <c r="G65">
         <v>650.005</v>
       </c>
-      <c r="H65">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I65">
+      <c r="H65" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I65" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>1300.01</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>1281.69</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
         <v>1281.69</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="2">
         <v>18.31999999999994</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="2">
         <v>18.31999999999994</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="2">
         <v>18.31999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="1">
-        <v>52</v>
+      <c r="A66" s="4">
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="5">
         <v>43088</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="5">
         <v>43089</v>
       </c>
       <c r="F66">
@@ -3281,48 +3280,48 @@
       <c r="G66">
         <v>1435.895</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>2871.79</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <v>2548.25</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
         <v>2548.25</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="2">
         <v>323.54</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="2">
         <v>323.54</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="2">
         <v>323.54</v>
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="1">
-        <v>53</v>
+      <c r="A67" s="4">
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>998.2</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="5">
         <v>43067</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="5">
         <v>42747</v>
       </c>
       <c r="F67">
@@ -3331,48 +3330,48 @@
       <c r="G67">
         <v>0.8598677619715487</v>
       </c>
-      <c r="H67">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I67">
+      <c r="H67" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I67" s="1">
         <v>33535878.4762692</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <v>858.3199999999999</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <v>925.5500000000001</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
         <v>925.5500000000001</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="2">
         <v>-67.23000000000013</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="2">
         <v>-67.23000000000013</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="2">
         <v>-67.23000000000013</v>
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="1">
-        <v>54</v>
+      <c r="A68" s="4">
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>3.6</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="5">
         <v>43067</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="5">
         <v>43090</v>
       </c>
       <c r="F68">
@@ -3381,48 +3380,48 @@
       <c r="G68">
         <v>2.972222222222222</v>
       </c>
-      <c r="H68">
-        <v>33703893.899497</v>
-      </c>
-      <c r="I68">
+      <c r="H68" s="1">
+        <v>33703893.899497</v>
+      </c>
+      <c r="I68" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <v>10.7</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <v>3.34</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <v>0.003339999999999677</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <v>3.34334</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="2">
         <v>7.359999999999999</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="2">
         <v>7.35666</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="2">
         <v>7.35666</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="1">
-        <v>55</v>
+      <c r="A69" s="4">
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>196.4</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="5">
         <v>43088</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="5">
         <v>43090</v>
       </c>
       <c r="F69">
@@ -3431,48 +3430,48 @@
       <c r="G69">
         <v>2.969908350305499</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>583.29</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <v>531.12</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
         <v>531.12</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="2">
         <v>52.16999999999996</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="2">
         <v>52.16999999999996</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="2">
         <v>52.16999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="1">
-        <v>56</v>
+      <c r="A70" s="4">
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="5">
         <v>43088</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="5">
         <v>43089</v>
       </c>
       <c r="F70">
@@ -3481,31 +3480,31 @@
       <c r="G70">
         <v>2136.33</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>33737496.9841425</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <v>2136.33</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <v>1986.62</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
         <v>1986.62</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="2">
         <v>149.71</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="2">
         <v>149.71</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="2">
         <v>149.71</v>
       </c>
     </row>
@@ -3519,10 +3518,11 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.05" top="0.4" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="40" orientation="landscape"/>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0.05" footer="0.3"/>
+  <pageSetup paperSize="6" scale="60" orientation="landscape"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;D&amp;Cנספח לטופס רווח הון בגין מכירת מטבעות וירטואליים, שנת 2017&amp;Rשם</oddHeader>
+    <oddHeader>&amp;L&amp;14&amp;"David,Bold"&amp;D&amp;R&amp;14&amp;"David,Bold"שם&amp;C&amp;14&amp;"David,Bold"נספח לטופס רווח הון בגין מכירת מטבעות וירטואליים, שנת 2017</oddHeader>
+    <oddFooter>&amp;C&amp;8&amp;"David,Bold"&amp;P&amp;R&amp;8&amp;"David,Bold"רווחים אלה חושבו לפי שיטת</oddFooter>
   </headerFooter>
 </worksheet>
 </file>